--- a/君立式/君立世审查资料/11.安全生产标准化评审体系文件不符合项汇总表.xlsx
+++ b/君立式/君立世审查资料/11.安全生产标准化评审体系文件不符合项汇总表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>序号</t>
   </si>
@@ -2960,17 +2960,10 @@
     <t>标准得分</t>
   </si>
   <si>
-    <t>安全标准化评审体系不符合项汇总表</t>
-  </si>
-  <si>
     <t>实际得分</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>整改情况</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>扣分</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2979,27 +2972,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>已整改</t>
+    <r>
+      <t>98.   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>评定结果要明确的事项缺项</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>98.   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>评定结果要明确的事项缺项</t>
+    <t>评审组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全标准化评审体系不符合项汇总表</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3130,7 +3127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3271,13 +3268,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3286,9 +3296,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3326,12 +3333,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3353,20 +3354,41 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3648,2285 +3670,2197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="6.875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>210</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>3</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>D4-E4</f>
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="G4" s="31"/>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>4</v>
       </c>
-      <c r="E5" s="6">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F68" si="0">D5-E5</f>
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="G5" s="32"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="G6" s="32"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="32"/>
+      <c r="H7" s="26"/>
+      <c r="I7">
         <f>SUM(F4:F7)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>10</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>7</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="6">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="G11" s="32"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12">
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="26"/>
+      <c r="I12">
         <f>SUM(F8:F12)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>4</v>
       </c>
-      <c r="E13" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>12</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>6</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="54.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="G14" s="32"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>12</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>6</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H15">
+      <c r="G15" s="32"/>
+      <c r="H15" s="26"/>
+      <c r="I15">
         <f>SUM(F13:F15)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E16" s="6">
-        <v>2</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>4</v>
       </c>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="E17" s="5">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>6</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>8</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>6</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>3</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>8</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>6</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>4</v>
       </c>
-      <c r="E22" s="6">
-        <v>2</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="E22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>12</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>6</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="G23" s="32"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="13" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>10</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>4</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="s">
+      <c r="G24" s="32"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>12</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>6</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H25">
+      <c r="G25" s="32"/>
+      <c r="H25" s="26"/>
+      <c r="I25">
         <f>SUM(F16:F25)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>5</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>3</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>10</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>8</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="54.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>12</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>8</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="G28" s="32"/>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>4</v>
       </c>
-      <c r="E29" s="6">
-        <v>2</v>
-      </c>
-      <c r="F29" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="E29" s="5">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="6">
-        <v>2</v>
-      </c>
-      <c r="E30" s="6">
+      <c r="D30" s="5">
+        <v>2</v>
+      </c>
+      <c r="E30" s="5">
         <v>0</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="15" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>6</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>0</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H31">
+      <c r="G31" s="32"/>
+      <c r="H31" s="26"/>
+      <c r="I31">
         <f>SUM(F26:F31)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>12</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>6</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="G32" s="32"/>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>5</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>0</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17" t="s">
+      <c r="G33" s="32"/>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>4</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>0</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="s">
+      <c r="G34" s="32"/>
+      <c r="H34" s="26"/>
+    </row>
+    <row r="35" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>4</v>
       </c>
-      <c r="E35" s="6">
-        <v>2</v>
-      </c>
-      <c r="F35" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="E35" s="5">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="13" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>6</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>0</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="G36" s="32"/>
+      <c r="H36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>3</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>0</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="G37" s="32"/>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>6</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>0</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G38" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
+      <c r="G38" s="32"/>
+      <c r="H38" s="26"/>
+    </row>
+    <row r="39" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>4</v>
       </c>
-      <c r="E39" s="6">
-        <v>2</v>
-      </c>
-      <c r="F39" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="E39" s="5">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G39" s="32"/>
+      <c r="H39" s="26"/>
+    </row>
+    <row r="40" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="13" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>4</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>0</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="G40" s="32"/>
+      <c r="H40" s="26"/>
+    </row>
+    <row r="41" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="13" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>8</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>0</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="54.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="G41" s="32"/>
+      <c r="H41" s="26"/>
+    </row>
+    <row r="42" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>3</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>0</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+      <c r="G42" s="32"/>
+      <c r="H42" s="26"/>
+    </row>
+    <row r="43" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="13" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>6</v>
       </c>
-      <c r="E43" s="6">
-        <v>2</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="E43" s="5">
+        <v>2</v>
+      </c>
+      <c r="F43" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="G43" s="32"/>
+      <c r="H43" s="26"/>
+    </row>
+    <row r="44" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="13" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>4</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>0</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+      <c r="G44" s="32"/>
+      <c r="H44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="13" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>4</v>
       </c>
-      <c r="E45" s="6">
-        <v>2</v>
-      </c>
-      <c r="F45" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="E45" s="5">
+        <v>2</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G45" s="32"/>
+      <c r="H45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="28"/>
-      <c r="C46" s="13" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="6">
-        <v>2</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="D46" s="5">
+        <v>2</v>
+      </c>
+      <c r="E46" s="5">
         <v>0</v>
       </c>
-      <c r="F46" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="F46" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G46" s="32"/>
+      <c r="H46" s="26"/>
+    </row>
+    <row r="47" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="13" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>4</v>
       </c>
-      <c r="E47" s="6">
-        <v>2</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="E47" s="5">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G47" s="32"/>
+      <c r="H47" s="26"/>
+    </row>
+    <row r="48" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="13" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>4</v>
       </c>
-      <c r="E48" s="6">
-        <v>2</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
+      <c r="E48" s="5">
+        <v>2</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G48" s="32"/>
+      <c r="H48" s="26"/>
+    </row>
+    <row r="49" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="13" t="s">
+      <c r="B49" s="22"/>
+      <c r="C49" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>6</v>
       </c>
-      <c r="E49" s="6">
-        <v>2</v>
-      </c>
-      <c r="F49" s="5">
+      <c r="E49" s="5">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="G49" s="32"/>
+      <c r="H49" s="26"/>
+    </row>
+    <row r="50" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="13" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>6</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>4</v>
       </c>
-      <c r="F50" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="s">
+      <c r="F50" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G50" s="32"/>
+      <c r="H50" s="26"/>
+    </row>
+    <row r="51" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="13" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>4</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>0</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H51">
+      <c r="G51" s="32"/>
+      <c r="H51" s="26"/>
+      <c r="I51">
         <f>SUM(F32:F51)</f>
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>20</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="7">
         <v>10</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="17" t="s">
+      <c r="G52" s="32"/>
+      <c r="H52" s="26"/>
+    </row>
+    <row r="53" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="4">
         <v>4</v>
       </c>
-      <c r="E53" s="5">
-        <v>2</v>
-      </c>
-      <c r="F53" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G53" s="32"/>
+      <c r="H53" s="26"/>
+    </row>
+    <row r="54" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="15" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>6</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="7">
         <v>3</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="G54" s="32"/>
+      <c r="H54" s="26"/>
+    </row>
+    <row r="55" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="15" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>20</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="7">
         <v>10</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="s">
+      <c r="G55" s="32"/>
+      <c r="H55" s="26"/>
+    </row>
+    <row r="56" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="15" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>20</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E56" s="7">
         <v>10</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
+      <c r="G56" s="32"/>
+      <c r="H56" s="26"/>
+    </row>
+    <row r="57" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="15" t="s">
+      <c r="B57" s="23"/>
+      <c r="C57" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>20</v>
       </c>
-      <c r="E57" s="8">
+      <c r="E57" s="7">
         <v>10</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="s">
+      <c r="G57" s="32"/>
+      <c r="H57" s="26"/>
+    </row>
+    <row r="58" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="15" t="s">
+      <c r="B58" s="23"/>
+      <c r="C58" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>8</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E58" s="7">
         <v>4</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="s">
+      <c r="G58" s="32"/>
+      <c r="H58" s="26"/>
+    </row>
+    <row r="59" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="15" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>6</v>
       </c>
-      <c r="E59" s="8">
+      <c r="E59" s="7">
         <v>4</v>
       </c>
-      <c r="F59" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="s">
+      <c r="F59" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G59" s="32"/>
+      <c r="H59" s="26"/>
+    </row>
+    <row r="60" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="13" t="s">
+      <c r="B60" s="23"/>
+      <c r="C60" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>6</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>4</v>
       </c>
-      <c r="F60" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="s">
+      <c r="F60" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G60" s="32"/>
+      <c r="H60" s="26"/>
+    </row>
+    <row r="61" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="13" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>4</v>
       </c>
-      <c r="E61" s="6">
-        <v>2</v>
-      </c>
-      <c r="F61" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="17" t="s">
+      <c r="E61" s="5">
+        <v>2</v>
+      </c>
+      <c r="F61" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G61" s="32"/>
+      <c r="H61" s="26"/>
+    </row>
+    <row r="62" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="13" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>4</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>0</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="G62" s="32"/>
+      <c r="H62" s="26"/>
+    </row>
+    <row r="63" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="13" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>4</v>
       </c>
-      <c r="E63" s="6">
-        <v>2</v>
-      </c>
-      <c r="F63" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="17" t="s">
+      <c r="E63" s="5">
+        <v>2</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G63" s="32"/>
+      <c r="H63" s="26"/>
+    </row>
+    <row r="64" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="13" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>6</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>0</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="G64" s="32"/>
+      <c r="H64" s="26"/>
+    </row>
+    <row r="65" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="13" t="s">
+      <c r="B65" s="23"/>
+      <c r="C65" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>12</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>6</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="54.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="17" t="s">
+      <c r="G65" s="32"/>
+      <c r="H65" s="26"/>
+    </row>
+    <row r="66" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B66" s="29"/>
-      <c r="C66" s="13" t="s">
+      <c r="B66" s="23"/>
+      <c r="C66" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>6</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>3</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="G66" s="32"/>
+      <c r="H66" s="26"/>
+    </row>
+    <row r="67" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="13" t="s">
+      <c r="B67" s="23"/>
+      <c r="C67" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>6</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>4</v>
       </c>
-      <c r="F67" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="H67">
+      <c r="F67" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G67" s="32"/>
+      <c r="H67" s="26"/>
+      <c r="I67">
         <f>SUM(F52:F67)</f>
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="17" t="s">
+    <row r="68" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B68" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>4</v>
       </c>
-      <c r="E68" s="6">
-        <v>2</v>
-      </c>
-      <c r="F68" s="5">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="17" t="s">
+      <c r="E68" s="5">
+        <v>2</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G68" s="32"/>
+      <c r="H68" s="26"/>
+    </row>
+    <row r="69" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="13" t="s">
+      <c r="B69" s="22"/>
+      <c r="C69" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="21">
+      <c r="D69" s="18">
         <v>6</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="20">
         <v>4</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="4">
         <f t="shared" ref="F69:F100" si="1">D69-E69</f>
         <v>2</v>
       </c>
-      <c r="G69" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="17" t="s">
+      <c r="G69" s="32"/>
+      <c r="H69" s="26"/>
+    </row>
+    <row r="70" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="13" t="s">
+      <c r="B70" s="22"/>
+      <c r="C70" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D70" s="19">
         <v>8</v>
       </c>
-      <c r="E70" s="24">
+      <c r="E70" s="21">
         <v>6</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="17" t="s">
+      <c r="G70" s="32"/>
+      <c r="H70" s="26"/>
+    </row>
+    <row r="71" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="13" t="s">
+      <c r="B71" s="22"/>
+      <c r="C71" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="22">
+      <c r="D71" s="19">
         <v>8</v>
       </c>
-      <c r="E71" s="24">
+      <c r="E71" s="21">
         <v>5</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G71" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="G71" s="32"/>
+      <c r="H71" s="26"/>
+    </row>
+    <row r="72" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B72" s="28"/>
-      <c r="C72" s="13" t="s">
+      <c r="B72" s="22"/>
+      <c r="C72" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D72" s="19">
         <v>10</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E72" s="21">
         <v>6</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17" t="s">
+      <c r="G72" s="32"/>
+      <c r="H72" s="26"/>
+    </row>
+    <row r="73" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B73" s="28"/>
-      <c r="C73" s="15" t="s">
+      <c r="B73" s="22"/>
+      <c r="C73" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="22">
+      <c r="D73" s="19">
         <v>20</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="21">
         <v>12</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="G73" s="32"/>
+      <c r="H73" s="26"/>
+    </row>
+    <row r="74" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="13" t="s">
+      <c r="B74" s="22"/>
+      <c r="C74" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="21">
+      <c r="D74" s="18">
         <v>4</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="20">
         <v>0</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="17" t="s">
+      <c r="G74" s="32"/>
+      <c r="H74" s="26"/>
+    </row>
+    <row r="75" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="22"/>
+      <c r="C75" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="22">
+      <c r="D75" s="19">
         <v>8</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="21">
         <v>4</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="G75" s="32"/>
+      <c r="H75" s="26"/>
+    </row>
+    <row r="76" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D76" s="18">
         <v>10</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="20">
         <v>6</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
+      <c r="G76" s="32"/>
+      <c r="H76" s="26"/>
+    </row>
+    <row r="77" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B77" s="28"/>
-      <c r="C77" s="13" t="s">
+      <c r="B77" s="22"/>
+      <c r="C77" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D77" s="19">
         <v>6</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="21">
         <v>4</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F77" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G77" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
+      <c r="G77" s="32"/>
+      <c r="H77" s="26"/>
+    </row>
+    <row r="78" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B78" s="28"/>
-      <c r="C78" s="13" t="s">
+      <c r="B78" s="22"/>
+      <c r="C78" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="18">
         <v>20</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="20">
         <v>10</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
+      <c r="G78" s="32"/>
+      <c r="H78" s="26"/>
+    </row>
+    <row r="79" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="13" t="s">
+      <c r="B79" s="22"/>
+      <c r="C79" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D79" s="19">
         <v>6</v>
       </c>
-      <c r="E79" s="24">
-        <v>2</v>
-      </c>
-      <c r="F79" s="5">
+      <c r="E79" s="21">
+        <v>2</v>
+      </c>
+      <c r="F79" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
+      <c r="G79" s="32"/>
+      <c r="H79" s="26"/>
+    </row>
+    <row r="80" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="5">
         <v>4</v>
       </c>
-      <c r="E80" s="6">
-        <v>2</v>
-      </c>
-      <c r="F80" s="5">
+      <c r="E80" s="5">
+        <v>2</v>
+      </c>
+      <c r="F80" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
+      <c r="G80" s="32"/>
+      <c r="H80" s="26"/>
+    </row>
+    <row r="81" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="13" t="s">
+      <c r="B81" s="22"/>
+      <c r="C81" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="5">
         <v>3</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>0</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F81" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
+      <c r="G81" s="32"/>
+      <c r="H81" s="26"/>
+    </row>
+    <row r="82" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B82" s="28"/>
-      <c r="C82" s="14" t="s">
+      <c r="B82" s="22"/>
+      <c r="C82" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D82" s="21">
-        <v>2</v>
-      </c>
-      <c r="E82" s="21">
+      <c r="D82" s="18">
+        <v>2</v>
+      </c>
+      <c r="E82" s="18">
         <v>0</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+      <c r="G82" s="32"/>
+      <c r="H82" s="26"/>
+    </row>
+    <row r="83" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B83" s="28"/>
-      <c r="C83" s="13" t="s">
+      <c r="B83" s="22"/>
+      <c r="C83" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D83" s="19">
         <v>4</v>
       </c>
-      <c r="E83" s="24">
+      <c r="E83" s="21">
         <v>3</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F83" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="17" t="s">
+      <c r="G83" s="32"/>
+      <c r="H83" s="26"/>
+    </row>
+    <row r="84" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="14" t="s">
+      <c r="B84" s="22"/>
+      <c r="C84" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D84" s="7">
-        <v>2</v>
-      </c>
-      <c r="E84" s="7">
+      <c r="D84" s="6">
+        <v>2</v>
+      </c>
+      <c r="E84" s="6">
         <v>0</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
+      <c r="G84" s="32"/>
+      <c r="H84" s="26"/>
+    </row>
+    <row r="85" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="B85" s="28"/>
-      <c r="C85" s="13" t="s">
+      <c r="B85" s="22"/>
+      <c r="C85" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D85" s="21">
-        <v>2</v>
-      </c>
-      <c r="E85" s="23">
+      <c r="D85" s="18">
+        <v>2</v>
+      </c>
+      <c r="E85" s="20">
         <v>0</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F85" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="17" t="s">
+      <c r="G85" s="32"/>
+      <c r="H85" s="26"/>
+    </row>
+    <row r="86" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="13" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D86" s="22">
-        <v>2</v>
-      </c>
-      <c r="E86" s="24">
+      <c r="D86" s="19">
+        <v>2</v>
+      </c>
+      <c r="E86" s="21">
         <v>0</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
+      <c r="G86" s="32"/>
+      <c r="H86" s="26"/>
+    </row>
+    <row r="87" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="B87" s="28"/>
-      <c r="C87" s="14" t="s">
+      <c r="B87" s="22"/>
+      <c r="C87" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D87" s="22">
+      <c r="D87" s="19">
         <v>3</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E87" s="19">
         <v>0</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F87" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
+      <c r="G87" s="32"/>
+      <c r="H87" s="26"/>
+    </row>
+    <row r="88" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="B88" s="28"/>
-      <c r="C88" s="13" t="s">
+      <c r="B88" s="22"/>
+      <c r="C88" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="22">
-        <v>2</v>
-      </c>
-      <c r="E88" s="24">
+      <c r="D88" s="19">
+        <v>2</v>
+      </c>
+      <c r="E88" s="21">
         <v>1</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G88" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
+      <c r="G88" s="32"/>
+      <c r="H88" s="26"/>
+    </row>
+    <row r="89" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="D89" s="7">
-        <v>2</v>
-      </c>
-      <c r="E89" s="7">
+      <c r="D89" s="6">
+        <v>2</v>
+      </c>
+      <c r="E89" s="6">
         <v>0</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F89" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
+      <c r="G89" s="32"/>
+      <c r="H89" s="26"/>
+    </row>
+    <row r="90" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="B90" s="28"/>
-      <c r="C90" s="14" t="s">
+      <c r="B90" s="22"/>
+      <c r="C90" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D90" s="7">
-        <v>2</v>
-      </c>
-      <c r="E90" s="7">
+      <c r="D90" s="6">
+        <v>2</v>
+      </c>
+      <c r="E90" s="6">
         <v>0</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="s">
+      <c r="G90" s="32"/>
+      <c r="H90" s="26"/>
+    </row>
+    <row r="91" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B91" s="28"/>
-      <c r="C91" s="13" t="s">
+      <c r="B91" s="22"/>
+      <c r="C91" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D91" s="21">
-        <v>2</v>
-      </c>
-      <c r="E91" s="23">
+      <c r="D91" s="18">
+        <v>2</v>
+      </c>
+      <c r="E91" s="20">
         <v>0</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="s">
+      <c r="G91" s="32"/>
+      <c r="H91" s="26"/>
+    </row>
+    <row r="92" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="B92" s="28"/>
-      <c r="C92" s="14" t="s">
+      <c r="B92" s="22"/>
+      <c r="C92" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D92" s="22">
-        <v>2</v>
-      </c>
-      <c r="E92" s="24">
+      <c r="D92" s="19">
+        <v>2</v>
+      </c>
+      <c r="E92" s="21">
         <v>0</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
+      <c r="G92" s="32"/>
+      <c r="H92" s="26"/>
+    </row>
+    <row r="93" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="B93" s="28"/>
-      <c r="C93" s="14" t="s">
+      <c r="B93" s="22"/>
+      <c r="C93" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D93" s="22">
+      <c r="D93" s="19">
         <v>4</v>
       </c>
-      <c r="E93" s="24">
-        <v>2</v>
-      </c>
-      <c r="F93" s="5">
+      <c r="E93" s="21">
+        <v>2</v>
+      </c>
+      <c r="F93" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="17" t="s">
+      <c r="G93" s="32"/>
+      <c r="H93" s="26"/>
+    </row>
+    <row r="94" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="C94" s="14" t="s">
+      <c r="B94" s="22"/>
+      <c r="C94" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D94" s="7">
-        <v>2</v>
-      </c>
-      <c r="E94" s="7">
+      <c r="D94" s="6">
+        <v>2</v>
+      </c>
+      <c r="E94" s="6">
         <v>0</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="17" t="s">
+      <c r="G94" s="32"/>
+      <c r="H94" s="26"/>
+    </row>
+    <row r="95" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="D95" s="21">
+      <c r="D95" s="18">
         <v>3</v>
       </c>
-      <c r="E95" s="23">
+      <c r="E95" s="20">
         <v>1</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F95" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="17" t="s">
+      <c r="G95" s="32"/>
+      <c r="H95" s="26"/>
+    </row>
+    <row r="96" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="B96" s="28"/>
-      <c r="C96" s="13" t="s">
+      <c r="B96" s="22"/>
+      <c r="C96" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="D96" s="22">
+      <c r="D96" s="19">
         <v>3</v>
       </c>
-      <c r="E96" s="24">
+      <c r="E96" s="21">
         <v>0</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="17" t="s">
+      <c r="G96" s="32"/>
+      <c r="H96" s="26"/>
+    </row>
+    <row r="97" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="B97" s="28"/>
-      <c r="C97" s="13" t="s">
+      <c r="B97" s="22"/>
+      <c r="C97" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D97" s="22">
+      <c r="D97" s="19">
         <v>3</v>
       </c>
-      <c r="E97" s="24">
+      <c r="E97" s="21">
         <v>0</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F97" s="4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="17" t="s">
+      <c r="G97" s="32"/>
+      <c r="H97" s="26"/>
+    </row>
+    <row r="98" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="B98" s="28" t="s">
+      <c r="B98" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C98" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="D98" s="7">
-        <v>2</v>
-      </c>
-      <c r="E98" s="7">
+      <c r="D98" s="6">
+        <v>2</v>
+      </c>
+      <c r="E98" s="6">
         <v>0</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="17" t="s">
+      <c r="G98" s="32"/>
+      <c r="H98" s="26"/>
+    </row>
+    <row r="99" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B99" s="28"/>
-      <c r="C99" s="14" t="s">
+      <c r="B99" s="22"/>
+      <c r="C99" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="6">
         <v>4</v>
       </c>
-      <c r="E99" s="7">
-        <v>2</v>
-      </c>
-      <c r="F99" s="5">
+      <c r="E99" s="6">
+        <v>2</v>
+      </c>
+      <c r="F99" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="17" t="s">
+      <c r="G99" s="32"/>
+      <c r="H99" s="26"/>
+    </row>
+    <row r="100" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B100" s="28"/>
-      <c r="C100" s="13" t="s">
+      <c r="B100" s="22"/>
+      <c r="C100" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="D100" s="6">
-        <v>2</v>
-      </c>
-      <c r="E100" s="6">
+      <c r="D100" s="5">
+        <v>2</v>
+      </c>
+      <c r="E100" s="5">
         <v>0</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="4">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101" s="6">
+      <c r="G100" s="32"/>
+      <c r="H100" s="26"/>
+    </row>
+    <row r="101" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D101" s="5">
         <v>4</v>
       </c>
-      <c r="E101" s="6">
-        <v>2</v>
-      </c>
-      <c r="F101" s="5">
+      <c r="E101" s="5">
+        <v>2</v>
+      </c>
+      <c r="F101" s="4">
         <f t="shared" ref="F101" si="2">D101-E101</f>
         <v>2</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>216</v>
-      </c>
+      <c r="G101" s="33"/>
+      <c r="H101" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="B80:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="G4:G101"/>
     <mergeCell ref="B98:B100"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B12"/>
@@ -5937,13 +5871,9 @@
     <mergeCell ref="B52:B67"/>
     <mergeCell ref="B68:B75"/>
     <mergeCell ref="B76:B79"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="B80:B88"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B95:B97"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>